--- a/Data/EC/NIT-9005134070.xlsx
+++ b/Data/EC/NIT-9005134070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80944433-0E6F-4F54-A640-9044605CB57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47818ACD-F579-4511-8828-31C667606A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7DC1E0FC-1986-4612-85EA-B6574A5499A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6FE60C8-EE1F-4098-BBF8-803BB8776F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="82">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,214 +65,190 @@
     <t>CC</t>
   </si>
   <si>
-    <t>92192407</t>
-  </si>
-  <si>
-    <t>EDUAR CORREA JIMENEZ</t>
+    <t>1104016288</t>
+  </si>
+  <si>
+    <t>JAIR JOSE PEREZ FERNANDEZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1143350912</t>
+  </si>
+  <si>
+    <t>GERMAN DANILO ARRIETA MONTERROZA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
   </si>
   <si>
     <t>1610</t>
   </si>
   <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1143350912</t>
-  </si>
-  <si>
-    <t>GERMAN DANILO ARRIETA MONTERROZA</t>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
   </si>
   <si>
     <t>1803</t>
   </si>
   <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>73154905</t>
-  </si>
-  <si>
-    <t>LEONARDO FELIPE HERRERA FRANCO</t>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1046401382</t>
+  </si>
+  <si>
+    <t>YEISON GARCIA MACHADO</t>
+  </si>
+  <si>
+    <t>1047387078</t>
+  </si>
+  <si>
+    <t>JORGE LUIS MONTERROZA SOTO</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
   </si>
   <si>
     <t>1902</t>
   </si>
   <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1104016288</t>
-  </si>
-  <si>
-    <t>JAIR JOSE PEREZ FERNANDEZ</t>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
   </si>
   <si>
     <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1046401382</t>
-  </si>
-  <si>
-    <t>YEISON GARCIA MACHADO</t>
-  </si>
-  <si>
-    <t>1047387078</t>
-  </si>
-  <si>
-    <t>JORGE LUIS MONTERROZA SOTO</t>
-  </si>
-  <si>
-    <t>9005134070</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1604</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -371,7 +347,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -384,9 +362,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -586,23 +562,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,10 +606,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +662,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A249C294-3889-D558-52A6-93784FAB3D1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF8B448-8A85-ACC7-B65A-ECBBCC5C894D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,8 +1013,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1375165-E6A7-461D-9E76-442812EFF338}">
-  <dimension ref="B2:J122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38FBE8F-4F8F-4FA8-8AF4-0F7BC516E976}">
+  <dimension ref="B2:J88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1062,7 +1038,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1107,7 +1083,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1139,12 +1115,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3929476</v>
+        <v>2230609</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1155,17 +1131,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F13" s="5">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1192,13 +1168,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1215,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>850000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1229,19 +1205,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>30892</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1258,13 +1234,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>850000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1275,19 +1251,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1298,19 +1274,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>30892</v>
+        <v>34000</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1321,19 +1297,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>30892</v>
+        <v>34000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1344,19 +1320,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>30892</v>
+        <v>34000</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1367,13 +1343,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>30892</v>
@@ -1390,19 +1366,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>34000</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>850000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1413,19 +1389,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F25" s="18">
-        <v>60000</v>
+        <v>34000</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>850000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1436,19 +1412,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F26" s="18">
-        <v>60000</v>
+        <v>34000</v>
       </c>
       <c r="G26" s="18">
-        <v>1500000</v>
+        <v>850000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1459,19 +1435,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>60000</v>
+        <v>30892</v>
       </c>
       <c r="G27" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1482,19 +1458,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>60000</v>
+        <v>34000</v>
       </c>
       <c r="G28" s="18">
-        <v>1500000</v>
+        <v>850000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1505,19 +1481,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>60000</v>
+        <v>30892</v>
       </c>
       <c r="G29" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1528,19 +1504,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>60000</v>
+        <v>34000</v>
       </c>
       <c r="G30" s="18">
-        <v>1500000</v>
+        <v>850000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1551,19 +1527,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
-        <v>80000</v>
+        <v>34000</v>
       </c>
       <c r="G31" s="18">
-        <v>1500000</v>
+        <v>850000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1574,19 +1550,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>80000</v>
+        <v>34000</v>
       </c>
       <c r="G32" s="18">
-        <v>1500000</v>
+        <v>850000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1597,19 +1573,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
-        <v>80000</v>
+        <v>34000</v>
       </c>
       <c r="G33" s="18">
-        <v>1500000</v>
+        <v>850000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1620,16 +1596,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F34" s="18">
-        <v>23800</v>
+        <v>34000</v>
       </c>
       <c r="G34" s="18">
         <v>850000</v>
@@ -1643,13 +1619,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
         <v>34000</v>
@@ -1666,13 +1642,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
         <v>34000</v>
@@ -1689,13 +1665,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
         <v>34000</v>
@@ -1712,13 +1688,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
         <v>34000</v>
@@ -1735,13 +1711,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
         <v>34000</v>
@@ -1758,19 +1734,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1781,13 +1757,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
         <v>34000</v>
@@ -1804,13 +1780,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F42" s="18">
         <v>34000</v>
@@ -1827,13 +1803,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
         <v>34000</v>
@@ -1850,13 +1826,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F44" s="18">
         <v>34000</v>
@@ -1873,19 +1849,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1896,19 +1872,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F46" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1919,10 +1895,10 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>41</v>
@@ -1942,10 +1918,10 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>42</v>
@@ -1965,10 +1941,10 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>43</v>
@@ -1988,19 +1964,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2011,19 +1987,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F51" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2034,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F52" s="18">
         <v>34000</v>
@@ -2057,13 +2033,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F53" s="18">
         <v>34000</v>
@@ -2080,19 +2056,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F54" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2103,13 +2079,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F55" s="18">
         <v>34000</v>
@@ -2126,13 +2102,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F56" s="18">
         <v>34000</v>
@@ -2149,13 +2125,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
         <v>34000</v>
@@ -2172,19 +2148,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F58" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2195,13 +2171,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F59" s="18">
         <v>34000</v>
@@ -2218,19 +2194,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F60" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2241,13 +2217,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F61" s="18">
         <v>34000</v>
@@ -2264,19 +2240,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F62" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2287,13 +2263,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F63" s="18">
         <v>34000</v>
@@ -2310,13 +2286,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F64" s="18">
         <v>34000</v>
@@ -2333,13 +2309,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F65" s="18">
         <v>34000</v>
@@ -2356,13 +2332,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F66" s="18">
         <v>34000</v>
@@ -2379,13 +2355,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F67" s="18">
         <v>34000</v>
@@ -2402,13 +2378,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F68" s="18">
         <v>34000</v>
@@ -2425,13 +2401,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F69" s="18">
         <v>34000</v>
@@ -2448,13 +2424,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F70" s="18">
         <v>34000</v>
@@ -2471,13 +2447,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F71" s="18">
         <v>34000</v>
@@ -2494,13 +2470,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F72" s="18">
         <v>34000</v>
@@ -2517,13 +2493,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F73" s="18">
         <v>34000</v>
@@ -2540,13 +2516,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F74" s="18">
         <v>34000</v>
@@ -2563,13 +2539,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F75" s="18">
         <v>34000</v>
@@ -2586,13 +2562,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F76" s="18">
         <v>34000</v>
@@ -2609,13 +2585,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F77" s="18">
         <v>34000</v>
@@ -2632,13 +2608,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F78" s="18">
         <v>34000</v>
@@ -2655,13 +2631,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F79" s="18">
         <v>34000</v>
@@ -2678,13 +2654,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F80" s="18">
         <v>34000</v>
@@ -2701,13 +2677,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F81" s="18">
         <v>34000</v>
@@ -2720,832 +2696,56 @@
       <c r="J81" s="20"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F82" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G82" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F83" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G83" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G84" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G85" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G86" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="B82" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F82" s="24">
+        <v>23800</v>
+      </c>
+      <c r="G82" s="24">
+        <v>850000</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="26"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G87" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="B87" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="H87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G88" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F89" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G89" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G90" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G91" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G92" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G93" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94" s="18">
-        <v>21874</v>
-      </c>
-      <c r="G94" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G95" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F96" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G96" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G97" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F98" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G98" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F99" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G99" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F100" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G100" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F101" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G101" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F102" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G102" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G103" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F104" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G104" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F105" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G105" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G106" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F107" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G107" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G108" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G109" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F110" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G110" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G111" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F112" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G112" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G113" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D114" s="17"/>
-      <c r="E114" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F114" s="18">
-        <v>121920</v>
-      </c>
-      <c r="G114" s="18">
-        <v>0</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D115" s="17"/>
-      <c r="E115" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F115" s="18">
-        <v>121920</v>
-      </c>
-      <c r="G115" s="18">
-        <v>0</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D116" s="23"/>
-      <c r="E116" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F116" s="24">
-        <v>121920</v>
-      </c>
-      <c r="G116" s="24">
-        <v>0</v>
-      </c>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="26"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="H121" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C122" s="32"/>
-      <c r="H122" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="B88" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="H88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H87:J87"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
